--- a/CumulativeTestsByTypeByCounty/2021-12-04.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-12-04.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>76977</v>
+        <v>77032</v>
       </c>
       <c r="C2" s="4">
-        <v>1933</v>
+        <v>1939</v>
       </c>
       <c r="D2" s="4">
-        <v>32888</v>
+        <v>33355</v>
       </c>
       <c r="E2" s="4">
-        <v>111798</v>
+        <v>112326</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>5550</v>
+        <v>5557</v>
       </c>
       <c r="C3" s="4">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D3" s="4">
-        <v>5249</v>
+        <v>5259</v>
       </c>
       <c r="E3" s="4">
-        <v>11117</v>
+        <v>11135</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>78194</v>
+        <v>78270</v>
       </c>
       <c r="C4" s="4">
-        <v>4201</v>
+        <v>4214</v>
       </c>
       <c r="D4" s="4">
-        <v>70329</v>
+        <v>70401</v>
       </c>
       <c r="E4" s="4">
-        <v>152724</v>
+        <v>152885</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>15419</v>
+        <v>15434</v>
       </c>
       <c r="C5" s="4">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="D5" s="4">
-        <v>12661</v>
+        <v>12678</v>
       </c>
       <c r="E5" s="4">
-        <v>30885</v>
+        <v>30919</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>4322</v>
+        <v>4329</v>
       </c>
       <c r="C6" s="4">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D6" s="4">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="E6" s="4">
-        <v>6556</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C7" s="4">
         <v>324</v>
       </c>
       <c r="D7" s="4">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E7" s="4">
-        <v>2615</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>102082</v>
+        <v>102161</v>
       </c>
       <c r="C8" s="4">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="D8" s="4">
-        <v>13689</v>
+        <v>13722</v>
       </c>
       <c r="E8" s="4">
-        <v>117191</v>
+        <v>117305</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>28024</v>
+        <v>28072</v>
       </c>
       <c r="C9" s="4">
         <v>1825</v>
       </c>
       <c r="D9" s="4">
-        <v>4972</v>
+        <v>4975</v>
       </c>
       <c r="E9" s="4">
-        <v>34821</v>
+        <v>34872</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2510</v>
+        <v>2519</v>
       </c>
       <c r="C10" s="4">
         <v>93</v>
       </c>
       <c r="D10" s="4">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="E10" s="4">
-        <v>3940</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>13760</v>
+        <v>13784</v>
       </c>
       <c r="C11" s="4">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D11" s="4">
-        <v>7971</v>
+        <v>7988</v>
       </c>
       <c r="E11" s="4">
-        <v>22484</v>
+        <v>22528</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>90785</v>
+        <v>90950</v>
       </c>
       <c r="C12" s="4">
-        <v>2175</v>
+        <v>2186</v>
       </c>
       <c r="D12" s="4">
-        <v>40771</v>
+        <v>40812</v>
       </c>
       <c r="E12" s="4">
-        <v>133731</v>
+        <v>133948</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="C13" s="4">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D13" s="4">
-        <v>3596</v>
+        <v>3603</v>
       </c>
       <c r="E13" s="4">
-        <v>6118</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>51928</v>
+        <v>51978</v>
       </c>
       <c r="C14" s="4">
-        <v>7918</v>
+        <v>7923</v>
       </c>
       <c r="D14" s="4">
-        <v>21066</v>
+        <v>21110</v>
       </c>
       <c r="E14" s="4">
-        <v>80912</v>
+        <v>81011</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>393757</v>
+        <v>394399</v>
       </c>
       <c r="C15" s="4">
-        <v>15296</v>
+        <v>15316</v>
       </c>
       <c r="D15" s="4">
-        <v>83606</v>
+        <v>83829</v>
       </c>
       <c r="E15" s="4">
-        <v>492659</v>
+        <v>493544</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>3966911</v>
+        <v>3972693</v>
       </c>
       <c r="C16" s="4">
-        <v>71339</v>
+        <v>71536</v>
       </c>
       <c r="D16" s="4">
-        <v>566485</v>
+        <v>568222</v>
       </c>
       <c r="E16" s="4">
-        <v>4604735</v>
+        <v>4612451</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>9006</v>
+        <v>9018</v>
       </c>
       <c r="C17" s="4">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D17" s="4">
-        <v>3087</v>
+        <v>3092</v>
       </c>
       <c r="E17" s="4">
-        <v>12545</v>
+        <v>12563</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>11916</v>
+        <v>11926</v>
       </c>
       <c r="C19" s="4">
         <v>561</v>
       </c>
       <c r="D19" s="4">
-        <v>8749</v>
+        <v>8773</v>
       </c>
       <c r="E19" s="4">
-        <v>21226</v>
+        <v>21260</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>86943</v>
+        <v>87037</v>
       </c>
       <c r="C20" s="4">
-        <v>10526</v>
+        <v>10529</v>
       </c>
       <c r="D20" s="4">
-        <v>33766</v>
+        <v>33858</v>
       </c>
       <c r="E20" s="4">
-        <v>131235</v>
+        <v>131424</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>542657</v>
+        <v>543624</v>
       </c>
       <c r="C21" s="4">
-        <v>25205</v>
+        <v>25246</v>
       </c>
       <c r="D21" s="4">
-        <v>106537</v>
+        <v>106759</v>
       </c>
       <c r="E21" s="4">
-        <v>674399</v>
+        <v>675629</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>421397</v>
+        <v>422107</v>
       </c>
       <c r="C22" s="4">
-        <v>11936</v>
+        <v>11951</v>
       </c>
       <c r="D22" s="4">
-        <v>47581</v>
+        <v>47755</v>
       </c>
       <c r="E22" s="4">
-        <v>480914</v>
+        <v>481813</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9266</v>
+        <v>9277</v>
       </c>
       <c r="C23" s="4">
         <v>171</v>
       </c>
       <c r="D23" s="4">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="E23" s="4">
-        <v>12823</v>
+        <v>12835</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1186</v>
+        <v>1210</v>
       </c>
       <c r="C24" s="4">
         <v>141</v>
       </c>
       <c r="D24" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E24" s="4">
-        <v>1508</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>24939</v>
+        <v>24952</v>
       </c>
       <c r="C25" s="4">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="D25" s="4">
-        <v>6543</v>
+        <v>6547</v>
       </c>
       <c r="E25" s="4">
-        <v>33305</v>
+        <v>33326</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>25595</v>
+        <v>25626</v>
       </c>
       <c r="C26" s="4">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D26" s="4">
-        <v>40812</v>
+        <v>40887</v>
       </c>
       <c r="E26" s="4">
-        <v>67645</v>
+        <v>67753</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>24770</v>
+        <v>24800</v>
       </c>
       <c r="C27" s="4">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="D27" s="4">
-        <v>6520</v>
+        <v>6525</v>
       </c>
       <c r="E27" s="4">
-        <v>32073</v>
+        <v>32112</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>56360</v>
+        <v>56451</v>
       </c>
       <c r="C28" s="4">
-        <v>2058</v>
+        <v>2075</v>
       </c>
       <c r="D28" s="4">
-        <v>12708</v>
+        <v>12748</v>
       </c>
       <c r="E28" s="4">
-        <v>71126</v>
+        <v>71274</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>56612</v>
+        <v>56720</v>
       </c>
       <c r="C29" s="4">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="D29" s="4">
-        <v>17011</v>
+        <v>17035</v>
       </c>
       <c r="E29" s="4">
-        <v>75722</v>
+        <v>75857</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>19881</v>
+        <v>19908</v>
       </c>
       <c r="C30" s="4">
-        <v>2104</v>
+        <v>2108</v>
       </c>
       <c r="D30" s="4">
-        <v>13593</v>
+        <v>13604</v>
       </c>
       <c r="E30" s="4">
-        <v>35578</v>
+        <v>35620</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>6950</v>
+        <v>6955</v>
       </c>
       <c r="C31" s="4">
         <v>324</v>
       </c>
       <c r="D31" s="4">
-        <v>10646</v>
+        <v>10654</v>
       </c>
       <c r="E31" s="4">
-        <v>17920</v>
+        <v>17933</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>415175</v>
+        <v>415807</v>
       </c>
       <c r="C32" s="4">
-        <v>10874</v>
+        <v>10882</v>
       </c>
       <c r="D32" s="4">
-        <v>140842</v>
+        <v>141010</v>
       </c>
       <c r="E32" s="4">
-        <v>566891</v>
+        <v>567699</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>9059</v>
+        <v>9076</v>
       </c>
       <c r="C33" s="4">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D33" s="4">
-        <v>3825</v>
+        <v>3827</v>
       </c>
       <c r="E33" s="4">
-        <v>13411</v>
+        <v>13431</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>2748</v>
+        <v>2755</v>
       </c>
       <c r="C34" s="4">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D34" s="4">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="E34" s="4">
-        <v>5166</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>18371</v>
+        <v>18390</v>
       </c>
       <c r="C35" s="4">
-        <v>3341</v>
+        <v>3343</v>
       </c>
       <c r="D35" s="4">
-        <v>11560</v>
+        <v>11577</v>
       </c>
       <c r="E35" s="4">
-        <v>33272</v>
+        <v>33310</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>6962</v>
+        <v>6985</v>
       </c>
       <c r="C36" s="4">
         <v>406</v>
       </c>
       <c r="D36" s="4">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="E36" s="4">
-        <v>10677</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>13717</v>
+        <v>13740</v>
       </c>
       <c r="C37" s="4">
         <v>887</v>
       </c>
       <c r="D37" s="4">
-        <v>3277</v>
+        <v>3283</v>
       </c>
       <c r="E37" s="4">
-        <v>17881</v>
+        <v>17910</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>36683</v>
+        <v>36713</v>
       </c>
       <c r="C38" s="4">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="D38" s="4">
-        <v>27518</v>
+        <v>27595</v>
       </c>
       <c r="E38" s="4">
-        <v>65389</v>
+        <v>65502</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>6301</v>
+        <v>6328</v>
       </c>
       <c r="C39" s="4">
         <v>437</v>
       </c>
       <c r="D39" s="4">
-        <v>6350</v>
+        <v>6354</v>
       </c>
       <c r="E39" s="4">
-        <v>13088</v>
+        <v>13119</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>6412</v>
+        <v>6428</v>
       </c>
       <c r="C40" s="4">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D40" s="4">
-        <v>4777</v>
+        <v>4789</v>
       </c>
       <c r="E40" s="4">
-        <v>11831</v>
+        <v>11861</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,7 +1734,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1526</v>
+        <v>1540</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
@@ -1743,7 +1743,7 @@
         <v>432</v>
       </c>
       <c r="E41" s="4">
-        <v>1987</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>2898</v>
+        <v>2900</v>
       </c>
       <c r="C42" s="4">
         <v>57</v>
       </c>
       <c r="D42" s="4">
-        <v>3271</v>
+        <v>3278</v>
       </c>
       <c r="E42" s="4">
-        <v>6226</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="C43" s="4">
         <v>160</v>
       </c>
       <c r="D43" s="4">
-        <v>4877</v>
+        <v>4881</v>
       </c>
       <c r="E43" s="4">
-        <v>9365</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1502266</v>
+        <v>1504664</v>
       </c>
       <c r="C44" s="4">
-        <v>106863</v>
+        <v>107040</v>
       </c>
       <c r="D44" s="4">
-        <v>270864</v>
+        <v>271979</v>
       </c>
       <c r="E44" s="4">
-        <v>1879993</v>
+        <v>1883683</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,7 +1802,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1770</v>
+        <v>1777</v>
       </c>
       <c r="C45" s="4">
         <v>119</v>
@@ -1811,7 +1811,7 @@
         <v>2694</v>
       </c>
       <c r="E45" s="4">
-        <v>4583</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>18036</v>
+        <v>18069</v>
       </c>
       <c r="C46" s="4">
         <v>1196</v>
       </c>
       <c r="D46" s="4">
-        <v>9216</v>
+        <v>9224</v>
       </c>
       <c r="E46" s="4">
-        <v>28448</v>
+        <v>28489</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>178474</v>
+        <v>178888</v>
       </c>
       <c r="C47" s="4">
-        <v>11543</v>
+        <v>11600</v>
       </c>
       <c r="D47" s="4">
-        <v>48871</v>
+        <v>49006</v>
       </c>
       <c r="E47" s="4">
-        <v>238888</v>
+        <v>239494</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>10566</v>
+        <v>10626</v>
       </c>
       <c r="C48" s="4">
         <v>364</v>
       </c>
       <c r="D48" s="4">
-        <v>5600</v>
+        <v>5626</v>
       </c>
       <c r="E48" s="4">
-        <v>16530</v>
+        <v>16616</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2041</v>
+        <v>2136</v>
       </c>
       <c r="C49" s="4">
         <v>35</v>
       </c>
       <c r="D49" s="4">
-        <v>3472</v>
+        <v>3875</v>
       </c>
       <c r="E49" s="4">
-        <v>5548</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>31356</v>
+        <v>31398</v>
       </c>
       <c r="C50" s="4">
-        <v>2119</v>
+        <v>2124</v>
       </c>
       <c r="D50" s="4">
-        <v>11576</v>
+        <v>11631</v>
       </c>
       <c r="E50" s="4">
-        <v>45051</v>
+        <v>45153</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>131756</v>
+        <v>132067</v>
       </c>
       <c r="C51" s="4">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="D51" s="4">
-        <v>23757</v>
+        <v>23847</v>
       </c>
       <c r="E51" s="4">
-        <v>157931</v>
+        <v>158333</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="C52" s="4">
         <v>68</v>
       </c>
       <c r="D52" s="4">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E52" s="4">
-        <v>2231</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4899</v>
+        <v>4901</v>
       </c>
       <c r="C53" s="4">
         <v>95</v>
       </c>
       <c r="D53" s="4">
-        <v>3789</v>
+        <v>3792</v>
       </c>
       <c r="E53" s="4">
-        <v>8783</v>
+        <v>8788</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C54" s="4">
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>4275</v>
+        <v>4280</v>
       </c>
       <c r="E54" s="4">
-        <v>5468</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>3503</v>
+        <v>3512</v>
       </c>
       <c r="C55" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D55" s="4">
-        <v>3245</v>
+        <v>3258</v>
       </c>
       <c r="E55" s="4">
-        <v>6817</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="C56" s="4">
         <v>40</v>
@@ -1998,7 +1998,7 @@
         <v>378</v>
       </c>
       <c r="E56" s="4">
-        <v>3169</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>3524</v>
+        <v>3529</v>
       </c>
       <c r="C57" s="4">
         <v>538</v>
       </c>
       <c r="D57" s="4">
-        <v>3296</v>
+        <v>3304</v>
       </c>
       <c r="E57" s="4">
-        <v>7358</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>3669730</v>
+        <v>3675529</v>
       </c>
       <c r="C58" s="4">
-        <v>161574</v>
+        <v>161817</v>
       </c>
       <c r="D58" s="4">
-        <v>548652</v>
+        <v>550510</v>
       </c>
       <c r="E58" s="4">
-        <v>4379956</v>
+        <v>4387856</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>11604</v>
+        <v>11612</v>
       </c>
       <c r="C59" s="4">
         <v>581</v>
       </c>
       <c r="D59" s="4">
-        <v>4948</v>
+        <v>4956</v>
       </c>
       <c r="E59" s="4">
-        <v>17133</v>
+        <v>17149</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>14839</v>
+        <v>14854</v>
       </c>
       <c r="C60" s="4">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D60" s="4">
-        <v>6949</v>
+        <v>6955</v>
       </c>
       <c r="E60" s="4">
-        <v>22337</v>
+        <v>22361</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>7308</v>
+        <v>7315</v>
       </c>
       <c r="C61" s="4">
         <v>1193</v>
       </c>
       <c r="D61" s="4">
-        <v>5408</v>
+        <v>5424</v>
       </c>
       <c r="E61" s="4">
-        <v>13909</v>
+        <v>13932</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>2933</v>
+        <v>2938</v>
       </c>
       <c r="C62" s="4">
         <v>259</v>
       </c>
       <c r="D62" s="4">
-        <v>2651</v>
+        <v>2654</v>
       </c>
       <c r="E62" s="4">
-        <v>5843</v>
+        <v>5851</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>900649</v>
+        <v>902139</v>
       </c>
       <c r="C63" s="4">
-        <v>79133</v>
+        <v>79195</v>
       </c>
       <c r="D63" s="4">
-        <v>229527</v>
+        <v>230262</v>
       </c>
       <c r="E63" s="4">
-        <v>1209309</v>
+        <v>1211596</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E64" s="4">
-        <v>1688</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>26525</v>
+        <v>26639</v>
       </c>
       <c r="C65" s="4">
         <v>128</v>
       </c>
       <c r="D65" s="4">
-        <v>40107</v>
+        <v>40168</v>
       </c>
       <c r="E65" s="4">
-        <v>66760</v>
+        <v>66935</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="C66" s="4">
         <v>480</v>
       </c>
       <c r="D66" s="4">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="E66" s="4">
-        <v>4505</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>23615</v>
+        <v>23637</v>
       </c>
       <c r="C67" s="4">
-        <v>3346</v>
+        <v>3354</v>
       </c>
       <c r="D67" s="4">
-        <v>11397</v>
+        <v>11414</v>
       </c>
       <c r="E67" s="4">
-        <v>38358</v>
+        <v>38405</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>7273</v>
+        <v>7293</v>
       </c>
       <c r="C68" s="4">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D68" s="4">
-        <v>8303</v>
+        <v>8356</v>
       </c>
       <c r="E68" s="4">
-        <v>16083</v>
+        <v>16157</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>87696</v>
+        <v>87960</v>
       </c>
       <c r="C69" s="4">
-        <v>6237</v>
+        <v>6259</v>
       </c>
       <c r="D69" s="4">
-        <v>54609</v>
+        <v>54821</v>
       </c>
       <c r="E69" s="4">
-        <v>148542</v>
+        <v>149040</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="C70" s="4">
         <v>41</v>
       </c>
       <c r="D70" s="4">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E70" s="4">
-        <v>2311</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1203013</v>
+        <v>1205218</v>
       </c>
       <c r="C71" s="4">
-        <v>22482</v>
+        <v>22492</v>
       </c>
       <c r="D71" s="4">
-        <v>580780</v>
+        <v>581640</v>
       </c>
       <c r="E71" s="4">
-        <v>1806275</v>
+        <v>1809350</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>244278</v>
+        <v>244550</v>
       </c>
       <c r="C72" s="4">
-        <v>9200</v>
+        <v>9216</v>
       </c>
       <c r="D72" s="4">
-        <v>49930</v>
+        <v>50038</v>
       </c>
       <c r="E72" s="4">
-        <v>303408</v>
+        <v>303804</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>31255</v>
+        <v>31355</v>
       </c>
       <c r="C73" s="4">
-        <v>1804</v>
+        <v>1819</v>
       </c>
       <c r="D73" s="4">
-        <v>13918</v>
+        <v>13946</v>
       </c>
       <c r="E73" s="4">
-        <v>46977</v>
+        <v>47120</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>17969</v>
+        <v>17979</v>
       </c>
       <c r="C74" s="4">
         <v>471</v>
       </c>
       <c r="D74" s="4">
-        <v>8123</v>
+        <v>8129</v>
       </c>
       <c r="E74" s="4">
-        <v>26563</v>
+        <v>26579</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>43059</v>
+        <v>43145</v>
       </c>
       <c r="C75" s="4">
         <v>1087</v>
       </c>
       <c r="D75" s="4">
-        <v>11044</v>
+        <v>11063</v>
       </c>
       <c r="E75" s="4">
-        <v>55190</v>
+        <v>55295</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>21983</v>
+        <v>22047</v>
       </c>
       <c r="C76" s="4">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="D76" s="4">
-        <v>6615</v>
+        <v>6620</v>
       </c>
       <c r="E76" s="4">
-        <v>29535</v>
+        <v>29607</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2352,10 +2352,10 @@
         <v>41</v>
       </c>
       <c r="D77" s="4">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E77" s="4">
-        <v>2434</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,7 +2363,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>4431</v>
+        <v>4439</v>
       </c>
       <c r="C78" s="4">
         <v>170</v>
@@ -2372,7 +2372,7 @@
         <v>782</v>
       </c>
       <c r="E78" s="4">
-        <v>5383</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C79" s="4">
         <v>139</v>
@@ -2389,7 +2389,7 @@
         <v>1489</v>
       </c>
       <c r="E79" s="4">
-        <v>2317</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1093183</v>
+        <v>1095705</v>
       </c>
       <c r="C80" s="4">
-        <v>49037</v>
+        <v>49123</v>
       </c>
       <c r="D80" s="4">
-        <v>150061</v>
+        <v>150401</v>
       </c>
       <c r="E80" s="4">
-        <v>1292281</v>
+        <v>1295229</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>6807</v>
+        <v>6822</v>
       </c>
       <c r="C81" s="4">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D81" s="4">
-        <v>1718</v>
+        <v>1725</v>
       </c>
       <c r="E81" s="4">
-        <v>9103</v>
+        <v>9128</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>22663</v>
+        <v>22687</v>
       </c>
       <c r="C82" s="4">
         <v>809</v>
       </c>
       <c r="D82" s="4">
-        <v>17706</v>
+        <v>17720</v>
       </c>
       <c r="E82" s="4">
-        <v>41178</v>
+        <v>41216</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>31479</v>
+        <v>31580</v>
       </c>
       <c r="C83" s="4">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D83" s="4">
-        <v>8873</v>
+        <v>8876</v>
       </c>
       <c r="E83" s="4">
-        <v>40924</v>
+        <v>41030</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5042</v>
+        <v>5058</v>
       </c>
       <c r="C84" s="4">
         <v>302</v>
       </c>
       <c r="D84" s="4">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="E84" s="4">
-        <v>7360</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>583808</v>
+        <v>584887</v>
       </c>
       <c r="C85" s="4">
-        <v>25378</v>
+        <v>25412</v>
       </c>
       <c r="D85" s="4">
-        <v>86710</v>
+        <v>86878</v>
       </c>
       <c r="E85" s="4">
-        <v>695896</v>
+        <v>697177</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>3719</v>
+        <v>3722</v>
       </c>
       <c r="C86" s="4">
         <v>69</v>
       </c>
       <c r="D86" s="4">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="E86" s="4">
-        <v>5579</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>20965</v>
+        <v>21001</v>
       </c>
       <c r="C87" s="4">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="D87" s="4">
-        <v>10122</v>
+        <v>10130</v>
       </c>
       <c r="E87" s="4">
-        <v>32003</v>
+        <v>32057</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2533,16 +2533,16 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C88" s="4">
         <v>53</v>
       </c>
       <c r="D88" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E88" s="4">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>4513</v>
+        <v>4518</v>
       </c>
       <c r="C89" s="4">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D89" s="4">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="E89" s="4">
-        <v>8503</v>
+        <v>8511</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>16869</v>
+        <v>16887</v>
       </c>
       <c r="C90" s="4">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D90" s="4">
-        <v>10035</v>
+        <v>10047</v>
       </c>
       <c r="E90" s="4">
-        <v>27389</v>
+        <v>27422</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>12277</v>
+        <v>12309</v>
       </c>
       <c r="C91" s="4">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="D91" s="4">
-        <v>9570</v>
+        <v>9654</v>
       </c>
       <c r="E91" s="4">
-        <v>23088</v>
+        <v>23206</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>160377</v>
+        <v>160626</v>
       </c>
       <c r="C92" s="4">
-        <v>5843</v>
+        <v>5860</v>
       </c>
       <c r="D92" s="4">
-        <v>42440</v>
+        <v>42765</v>
       </c>
       <c r="E92" s="4">
-        <v>208660</v>
+        <v>209251</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>77531</v>
+        <v>77609</v>
       </c>
       <c r="C93" s="4">
-        <v>11897</v>
+        <v>11912</v>
       </c>
       <c r="D93" s="4">
-        <v>41607</v>
+        <v>41672</v>
       </c>
       <c r="E93" s="4">
-        <v>131035</v>
+        <v>131193</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>55128</v>
+        <v>55204</v>
       </c>
       <c r="C94" s="4">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="D94" s="4">
-        <v>12627</v>
+        <v>12649</v>
       </c>
       <c r="E94" s="4">
-        <v>69177</v>
+        <v>69280</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>142196</v>
+        <v>142426</v>
       </c>
       <c r="C95" s="4">
-        <v>5676</v>
+        <v>5694</v>
       </c>
       <c r="D95" s="4">
-        <v>43699</v>
+        <v>43820</v>
       </c>
       <c r="E95" s="4">
-        <v>191571</v>
+        <v>191940</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>29109</v>
+        <v>29165</v>
       </c>
       <c r="C96" s="4">
         <v>511</v>
       </c>
       <c r="D96" s="4">
-        <v>7116</v>
+        <v>7120</v>
       </c>
       <c r="E96" s="4">
-        <v>36736</v>
+        <v>36796</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1885</v>
+        <v>1891</v>
       </c>
       <c r="C97" s="4">
         <v>77</v>
       </c>
       <c r="D97" s="4">
-        <v>2926</v>
+        <v>2933</v>
       </c>
       <c r="E97" s="4">
-        <v>4888</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>10125</v>
+        <v>10151</v>
       </c>
       <c r="C98" s="4">
         <v>442</v>
       </c>
       <c r="D98" s="4">
-        <v>3808</v>
+        <v>3819</v>
       </c>
       <c r="E98" s="4">
-        <v>14375</v>
+        <v>14412</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,7 +2720,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="C99" s="4">
         <v>815</v>
@@ -2729,7 +2729,7 @@
         <v>3305</v>
       </c>
       <c r="E99" s="4">
-        <v>5997</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,7 +2737,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="C100" s="4">
         <v>309</v>
@@ -2746,7 +2746,7 @@
         <v>2835</v>
       </c>
       <c r="E100" s="4">
-        <v>5480</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>40084</v>
+        <v>40146</v>
       </c>
       <c r="C101" s="4">
-        <v>4266</v>
+        <v>4278</v>
       </c>
       <c r="D101" s="4">
-        <v>22989</v>
+        <v>23008</v>
       </c>
       <c r="E101" s="4">
-        <v>67339</v>
+        <v>67432</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>6680775</v>
+        <v>6693883</v>
       </c>
       <c r="C102" s="4">
-        <v>269183</v>
+        <v>269469</v>
       </c>
       <c r="D102" s="4">
-        <v>979252</v>
+        <v>981156</v>
       </c>
       <c r="E102" s="4">
-        <v>7929210</v>
+        <v>7944508</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>82165</v>
+        <v>82217</v>
       </c>
       <c r="C103" s="4">
-        <v>8979</v>
+        <v>8986</v>
       </c>
       <c r="D103" s="4">
-        <v>28692</v>
+        <v>28742</v>
       </c>
       <c r="E103" s="4">
-        <v>119836</v>
+        <v>119945</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2805,16 +2805,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C104" s="4">
         <v>70</v>
       </c>
       <c r="D104" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E104" s="4">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1828</v>
+        <v>1860</v>
       </c>
       <c r="C105" s="4">
         <v>42</v>
       </c>
       <c r="D105" s="4">
-        <v>2981</v>
+        <v>2991</v>
       </c>
       <c r="E105" s="4">
-        <v>4851</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>417100</v>
+        <v>417808</v>
       </c>
       <c r="C106" s="4">
-        <v>15313</v>
+        <v>15361</v>
       </c>
       <c r="D106" s="4">
-        <v>54545</v>
+        <v>54698</v>
       </c>
       <c r="E106" s="4">
-        <v>486958</v>
+        <v>487867</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,7 +2856,7 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1144</v>
+        <v>1151</v>
       </c>
       <c r="C107" s="4">
         <v>499</v>
@@ -2865,7 +2865,7 @@
         <v>499</v>
       </c>
       <c r="E107" s="4">
-        <v>2142</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>45199</v>
+        <v>45305</v>
       </c>
       <c r="C108" s="4">
-        <v>3080</v>
+        <v>3091</v>
       </c>
       <c r="D108" s="4">
-        <v>26881</v>
+        <v>26929</v>
       </c>
       <c r="E108" s="4">
-        <v>75160</v>
+        <v>75325</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>759145</v>
+        <v>760581</v>
       </c>
       <c r="C109" s="4">
-        <v>20717</v>
+        <v>20737</v>
       </c>
       <c r="D109" s="4">
-        <v>377575</v>
+        <v>378478</v>
       </c>
       <c r="E109" s="4">
-        <v>1157437</v>
+        <v>1159796</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>40591</v>
+        <v>40623</v>
       </c>
       <c r="C110" s="4">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D110" s="4">
-        <v>16456</v>
+        <v>16507</v>
       </c>
       <c r="E110" s="4">
-        <v>58260</v>
+        <v>58344</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>15588</v>
+        <v>15680</v>
       </c>
       <c r="C111" s="4">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D111" s="4">
-        <v>5960</v>
+        <v>5971</v>
       </c>
       <c r="E111" s="4">
-        <v>21793</v>
+        <v>21897</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>51968</v>
+        <v>52038</v>
       </c>
       <c r="C112" s="4">
-        <v>3139</v>
+        <v>3145</v>
       </c>
       <c r="D112" s="4">
-        <v>40989</v>
+        <v>41108</v>
       </c>
       <c r="E112" s="4">
-        <v>96096</v>
+        <v>96291</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>25873</v>
+        <v>25907</v>
       </c>
       <c r="C113" s="4">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="D113" s="4">
-        <v>11683</v>
+        <v>11698</v>
       </c>
       <c r="E113" s="4">
-        <v>39661</v>
+        <v>39712</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>20642</v>
+        <v>20667</v>
       </c>
       <c r="C114" s="4">
         <v>675</v>
       </c>
       <c r="D114" s="4">
-        <v>9689</v>
+        <v>9756</v>
       </c>
       <c r="E114" s="4">
-        <v>31006</v>
+        <v>31098</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>22250</v>
+        <v>22279</v>
       </c>
       <c r="C115" s="4">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="D115" s="4">
-        <v>14776</v>
+        <v>14781</v>
       </c>
       <c r="E115" s="4">
-        <v>37936</v>
+        <v>37974</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3220</v>
+        <v>3226</v>
       </c>
       <c r="C116" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D116" s="4">
         <v>1712</v>
       </c>
       <c r="E116" s="4">
-        <v>4981</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>123452</v>
+        <v>123587</v>
       </c>
       <c r="C117" s="4">
-        <v>4970</v>
+        <v>4978</v>
       </c>
       <c r="D117" s="4">
-        <v>41471</v>
+        <v>41658</v>
       </c>
       <c r="E117" s="4">
-        <v>169893</v>
+        <v>170223</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>12356</v>
+        <v>12365</v>
       </c>
       <c r="C118" s="4">
         <v>1738</v>
       </c>
       <c r="D118" s="4">
-        <v>9236</v>
+        <v>9346</v>
       </c>
       <c r="E118" s="4">
-        <v>23330</v>
+        <v>23449</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,7 +3060,7 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C119" s="4">
         <v>24</v>
@@ -3069,7 +3069,7 @@
         <v>728</v>
       </c>
       <c r="E119" s="4">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>4420</v>
+        <v>4423</v>
       </c>
       <c r="C120" s="4">
         <v>270</v>
       </c>
       <c r="D120" s="4">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="E120" s="4">
-        <v>6398</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>10512</v>
+        <v>10531</v>
       </c>
       <c r="C121" s="4">
         <v>492</v>
       </c>
       <c r="D121" s="4">
-        <v>5353</v>
+        <v>5362</v>
       </c>
       <c r="E121" s="4">
-        <v>16357</v>
+        <v>16385</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>26539</v>
+        <v>26579</v>
       </c>
       <c r="C122" s="4">
-        <v>3005</v>
+        <v>3008</v>
       </c>
       <c r="D122" s="4">
-        <v>14095</v>
+        <v>14101</v>
       </c>
       <c r="E122" s="4">
-        <v>43639</v>
+        <v>43688</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>227279</v>
+        <v>227502</v>
       </c>
       <c r="C124" s="4">
-        <v>15849</v>
+        <v>15864</v>
       </c>
       <c r="D124" s="4">
-        <v>94279</v>
+        <v>94387</v>
       </c>
       <c r="E124" s="4">
-        <v>337407</v>
+        <v>337753</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>14957</v>
+        <v>14962</v>
       </c>
       <c r="C125" s="4">
         <v>757</v>
       </c>
       <c r="D125" s="4">
-        <v>13805</v>
+        <v>13807</v>
       </c>
       <c r="E125" s="4">
-        <v>29519</v>
+        <v>29526</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>74298</v>
+        <v>74547</v>
       </c>
       <c r="C126" s="4">
-        <v>10759</v>
+        <v>10778</v>
       </c>
       <c r="D126" s="4">
-        <v>33157</v>
+        <v>33189</v>
       </c>
       <c r="E126" s="4">
-        <v>118214</v>
+        <v>118514</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>183823</v>
+        <v>184089</v>
       </c>
       <c r="C127" s="4">
-        <v>8822</v>
+        <v>8831</v>
       </c>
       <c r="D127" s="4">
-        <v>43807</v>
+        <v>43907</v>
       </c>
       <c r="E127" s="4">
-        <v>236452</v>
+        <v>236827</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>10368</v>
+        <v>10430</v>
       </c>
       <c r="C128" s="4">
         <v>234</v>
       </c>
       <c r="D128" s="4">
-        <v>7992</v>
+        <v>8052</v>
       </c>
       <c r="E128" s="4">
-        <v>18594</v>
+        <v>18716</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>21414</v>
+        <v>21458</v>
       </c>
       <c r="C129" s="4">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D129" s="4">
-        <v>12094</v>
+        <v>12181</v>
       </c>
       <c r="E129" s="4">
-        <v>34075</v>
+        <v>34207</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>164287</v>
+        <v>164512</v>
       </c>
       <c r="C130" s="4">
-        <v>6933</v>
+        <v>6949</v>
       </c>
       <c r="D130" s="4">
-        <v>48615</v>
+        <v>48733</v>
       </c>
       <c r="E130" s="4">
-        <v>219835</v>
+        <v>220194</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>40732</v>
+        <v>40798</v>
       </c>
       <c r="C131" s="4">
-        <v>2555</v>
+        <v>2568</v>
       </c>
       <c r="D131" s="4">
-        <v>19972</v>
+        <v>20046</v>
       </c>
       <c r="E131" s="4">
-        <v>63259</v>
+        <v>63412</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3304,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E133" s="4">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>44722</v>
+        <v>44769</v>
       </c>
       <c r="C134" s="4">
-        <v>1703</v>
+        <v>1726</v>
       </c>
       <c r="D134" s="4">
-        <v>41329</v>
+        <v>41340</v>
       </c>
       <c r="E134" s="4">
-        <v>87754</v>
+        <v>87835</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="C135" s="4">
         <v>62</v>
       </c>
       <c r="D135" s="4">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="E135" s="4">
-        <v>3483</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,7 +3366,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3155</v>
+        <v>3157</v>
       </c>
       <c r="C137" s="4">
         <v>57</v>
@@ -3375,7 +3375,7 @@
         <v>758</v>
       </c>
       <c r="E137" s="4">
-        <v>3970</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>37533</v>
+        <v>37561</v>
       </c>
       <c r="C138" s="4">
-        <v>5414</v>
+        <v>5420</v>
       </c>
       <c r="D138" s="4">
-        <v>16499</v>
+        <v>16512</v>
       </c>
       <c r="E138" s="4">
-        <v>59446</v>
+        <v>59493</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C139" s="4">
         <v>53</v>
       </c>
       <c r="D139" s="4">
-        <v>5371</v>
+        <v>5380</v>
       </c>
       <c r="E139" s="4">
-        <v>6541</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>11548</v>
+        <v>11564</v>
       </c>
       <c r="C140" s="4">
         <v>324</v>
       </c>
       <c r="D140" s="4">
-        <v>3834</v>
+        <v>3908</v>
       </c>
       <c r="E140" s="4">
-        <v>15706</v>
+        <v>15796</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>29809</v>
+        <v>29853</v>
       </c>
       <c r="C141" s="4">
         <v>2901</v>
       </c>
       <c r="D141" s="4">
-        <v>18030</v>
+        <v>18060</v>
       </c>
       <c r="E141" s="4">
-        <v>50740</v>
+        <v>50814</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>8404</v>
+        <v>8440</v>
       </c>
       <c r="C142" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D142" s="4">
-        <v>8702</v>
+        <v>8706</v>
       </c>
       <c r="E142" s="4">
-        <v>17272</v>
+        <v>17313</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>27393</v>
+        <v>27415</v>
       </c>
       <c r="C143" s="4">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D143" s="4">
-        <v>7711</v>
+        <v>7716</v>
       </c>
       <c r="E143" s="4">
-        <v>35850</v>
+        <v>35878</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>17859</v>
+        <v>17896</v>
       </c>
       <c r="C144" s="4">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="D144" s="4">
-        <v>11630</v>
+        <v>11655</v>
       </c>
       <c r="E144" s="4">
-        <v>30684</v>
+        <v>30752</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>12245</v>
+        <v>12264</v>
       </c>
       <c r="C145" s="4">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D145" s="4">
-        <v>6015</v>
+        <v>6018</v>
       </c>
       <c r="E145" s="4">
-        <v>18678</v>
+        <v>18702</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>15654</v>
+        <v>15700</v>
       </c>
       <c r="C146" s="4">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D146" s="4">
-        <v>6400</v>
+        <v>6426</v>
       </c>
       <c r="E146" s="4">
-        <v>22877</v>
+        <v>22950</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>86967</v>
+        <v>87088</v>
       </c>
       <c r="C147" s="4">
-        <v>4651</v>
+        <v>4662</v>
       </c>
       <c r="D147" s="4">
-        <v>21813</v>
+        <v>21843</v>
       </c>
       <c r="E147" s="4">
-        <v>113431</v>
+        <v>113593</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>38151</v>
+        <v>38162</v>
       </c>
       <c r="C148" s="4">
         <v>750</v>
       </c>
       <c r="D148" s="4">
-        <v>31009</v>
+        <v>31025</v>
       </c>
       <c r="E148" s="4">
-        <v>69910</v>
+        <v>69937</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,16 +3570,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C149" s="4">
         <v>271</v>
       </c>
       <c r="D149" s="4">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="E149" s="4">
-        <v>1431</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>9004</v>
+        <v>9010</v>
       </c>
       <c r="C150" s="4">
         <v>1315</v>
       </c>
       <c r="D150" s="4">
-        <v>6019</v>
+        <v>6023</v>
       </c>
       <c r="E150" s="4">
-        <v>16338</v>
+        <v>16348</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>17834</v>
+        <v>17871</v>
       </c>
       <c r="C151" s="4">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D151" s="4">
-        <v>4374</v>
+        <v>4399</v>
       </c>
       <c r="E151" s="4">
-        <v>22761</v>
+        <v>22825</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3621,16 +3621,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C152" s="4">
         <v>4</v>
       </c>
       <c r="D152" s="4">
-        <v>2303</v>
+        <v>2384</v>
       </c>
       <c r="E152" s="4">
-        <v>2396</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>314098</v>
+        <v>315177</v>
       </c>
       <c r="C153" s="4">
-        <v>11117</v>
+        <v>11156</v>
       </c>
       <c r="D153" s="4">
-        <v>156483</v>
+        <v>157003</v>
       </c>
       <c r="E153" s="4">
-        <v>481698</v>
+        <v>483336</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4033</v>
+        <v>4042</v>
       </c>
       <c r="C154" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D154" s="4">
-        <v>3985</v>
+        <v>3996</v>
       </c>
       <c r="E154" s="4">
-        <v>8183</v>
+        <v>8204</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>19025</v>
+        <v>19044</v>
       </c>
       <c r="C155" s="4">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D155" s="4">
-        <v>5313</v>
+        <v>5342</v>
       </c>
       <c r="E155" s="4">
-        <v>24738</v>
+        <v>24787</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>3912</v>
+        <v>3914</v>
       </c>
       <c r="C156" s="4">
         <v>863</v>
       </c>
       <c r="D156" s="4">
-        <v>3564</v>
+        <v>3569</v>
       </c>
       <c r="E156" s="4">
-        <v>8339</v>
+        <v>8346</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="C157" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D157" s="4">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E157" s="4">
-        <v>3313</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2434</v>
+        <v>2438</v>
       </c>
       <c r="C158" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D158" s="4">
-        <v>1658</v>
+        <v>1667</v>
       </c>
       <c r="E158" s="4">
-        <v>4197</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>46797</v>
+        <v>46839</v>
       </c>
       <c r="C159" s="4">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="D159" s="4">
-        <v>7331</v>
+        <v>7342</v>
       </c>
       <c r="E159" s="4">
-        <v>56063</v>
+        <v>56119</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>83445</v>
+        <v>83531</v>
       </c>
       <c r="C160" s="4">
         <v>513</v>
       </c>
       <c r="D160" s="4">
-        <v>21795</v>
+        <v>21991</v>
       </c>
       <c r="E160" s="4">
-        <v>105753</v>
+        <v>106035</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>3408</v>
+        <v>3419</v>
       </c>
       <c r="C161" s="4">
         <v>89</v>
       </c>
       <c r="D161" s="4">
-        <v>3716</v>
+        <v>3753</v>
       </c>
       <c r="E161" s="4">
-        <v>7213</v>
+        <v>7261</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>399218</v>
+        <v>399899</v>
       </c>
       <c r="C162" s="4">
-        <v>12312</v>
+        <v>12359</v>
       </c>
       <c r="D162" s="4">
-        <v>136813</v>
+        <v>137269</v>
       </c>
       <c r="E162" s="4">
-        <v>548343</v>
+        <v>549527</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>47517</v>
+        <v>47569</v>
       </c>
       <c r="C164" s="4">
         <v>1623</v>
       </c>
       <c r="D164" s="4">
-        <v>13934</v>
+        <v>13978</v>
       </c>
       <c r="E164" s="4">
-        <v>63074</v>
+        <v>63170</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2370</v>
+        <v>2392</v>
       </c>
       <c r="C165" s="4">
         <v>28</v>
       </c>
       <c r="D165" s="4">
-        <v>1806</v>
+        <v>1912</v>
       </c>
       <c r="E165" s="4">
-        <v>4204</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>76270</v>
+        <v>76443</v>
       </c>
       <c r="C166" s="4">
-        <v>10470</v>
+        <v>10488</v>
       </c>
       <c r="D166" s="4">
-        <v>78708</v>
+        <v>78909</v>
       </c>
       <c r="E166" s="4">
-        <v>165448</v>
+        <v>165840</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>24479</v>
+        <v>24519</v>
       </c>
       <c r="C167" s="4">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D167" s="4">
-        <v>12491</v>
+        <v>12531</v>
       </c>
       <c r="E167" s="4">
-        <v>38218</v>
+        <v>38300</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>7465</v>
+        <v>7590</v>
       </c>
       <c r="C168" s="4">
         <v>128</v>
       </c>
       <c r="D168" s="4">
-        <v>2591</v>
+        <v>2615</v>
       </c>
       <c r="E168" s="4">
-        <v>10184</v>
+        <v>10333</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>8633</v>
+        <v>8646</v>
       </c>
       <c r="C169" s="4">
         <v>80</v>
       </c>
       <c r="D169" s="4">
-        <v>5960</v>
+        <v>5962</v>
       </c>
       <c r="E169" s="4">
-        <v>14673</v>
+        <v>14688</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>17249</v>
+        <v>17265</v>
       </c>
       <c r="C170" s="4">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D170" s="4">
-        <v>8169</v>
+        <v>8176</v>
       </c>
       <c r="E170" s="4">
-        <v>26657</v>
+        <v>26681</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>641263</v>
+        <v>642669</v>
       </c>
       <c r="C171" s="4">
-        <v>46256</v>
+        <v>46339</v>
       </c>
       <c r="D171" s="4">
-        <v>134609</v>
+        <v>134892</v>
       </c>
       <c r="E171" s="4">
-        <v>822128</v>
+        <v>823900</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>10347</v>
+        <v>10352</v>
       </c>
       <c r="C172" s="4">
         <v>1165</v>
       </c>
       <c r="D172" s="4">
-        <v>5603</v>
+        <v>5614</v>
       </c>
       <c r="E172" s="4">
-        <v>17115</v>
+        <v>17131</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>8810</v>
+        <v>8814</v>
       </c>
       <c r="C173" s="4">
         <v>800</v>
       </c>
       <c r="D173" s="4">
-        <v>8012</v>
+        <v>8027</v>
       </c>
       <c r="E173" s="4">
-        <v>17622</v>
+        <v>17641</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C174" s="4">
         <v>16</v>
       </c>
       <c r="D174" s="4">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E174" s="4">
-        <v>1106</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>60393</v>
+        <v>60478</v>
       </c>
       <c r="C175" s="4">
-        <v>4107</v>
+        <v>4122</v>
       </c>
       <c r="D175" s="4">
-        <v>20466</v>
+        <v>20482</v>
       </c>
       <c r="E175" s="4">
-        <v>84966</v>
+        <v>85082</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>39566</v>
+        <v>39606</v>
       </c>
       <c r="C176" s="4">
-        <v>1953</v>
+        <v>1958</v>
       </c>
       <c r="D176" s="4">
-        <v>27586</v>
+        <v>27701</v>
       </c>
       <c r="E176" s="4">
-        <v>69105</v>
+        <v>69265</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>6709</v>
+        <v>6717</v>
       </c>
       <c r="C177" s="4">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D177" s="4">
-        <v>4856</v>
+        <v>4857</v>
       </c>
       <c r="E177" s="4">
-        <v>12455</v>
+        <v>12465</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10010</v>
+        <v>10015</v>
       </c>
       <c r="C178" s="4">
         <v>221</v>
       </c>
       <c r="D178" s="4">
-        <v>7092</v>
+        <v>7135</v>
       </c>
       <c r="E178" s="4">
-        <v>17323</v>
+        <v>17371</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>334422</v>
+        <v>334807</v>
       </c>
       <c r="C179" s="4">
-        <v>51800</v>
+        <v>51837</v>
       </c>
       <c r="D179" s="4">
-        <v>152131</v>
+        <v>152538</v>
       </c>
       <c r="E179" s="4">
-        <v>538353</v>
+        <v>539182</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>1311</v>
+        <v>1321</v>
       </c>
       <c r="C180" s="4">
         <v>376</v>
       </c>
       <c r="D180" s="4">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="E180" s="4">
-        <v>2848</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="C181" s="4">
         <v>380</v>
       </c>
       <c r="D181" s="4">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="E181" s="4">
-        <v>2659</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>50510</v>
+        <v>50577</v>
       </c>
       <c r="C182" s="4">
-        <v>6902</v>
+        <v>6915</v>
       </c>
       <c r="D182" s="4">
-        <v>25523</v>
+        <v>25567</v>
       </c>
       <c r="E182" s="4">
-        <v>82935</v>
+        <v>83059</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>22871</v>
+        <v>22921</v>
       </c>
       <c r="C183" s="4">
         <v>1090</v>
       </c>
       <c r="D183" s="4">
-        <v>12280</v>
+        <v>12307</v>
       </c>
       <c r="E183" s="4">
-        <v>36241</v>
+        <v>36318</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>13991</v>
+        <v>14015</v>
       </c>
       <c r="C184" s="4">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D184" s="4">
-        <v>8197</v>
+        <v>8228</v>
       </c>
       <c r="E184" s="4">
-        <v>23497</v>
+        <v>23553</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>124200</v>
+        <v>124479</v>
       </c>
       <c r="C185" s="4">
-        <v>7574</v>
+        <v>7584</v>
       </c>
       <c r="D185" s="4">
-        <v>35737</v>
+        <v>35824</v>
       </c>
       <c r="E185" s="4">
-        <v>167511</v>
+        <v>167887</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3021</v>
+        <v>3024</v>
       </c>
       <c r="C186" s="4">
         <v>334</v>
       </c>
       <c r="D186" s="4">
-        <v>3191</v>
+        <v>3204</v>
       </c>
       <c r="E186" s="4">
-        <v>6546</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>14742</v>
+        <v>14753</v>
       </c>
       <c r="C187" s="4">
         <v>162</v>
       </c>
       <c r="D187" s="4">
-        <v>3776</v>
+        <v>3779</v>
       </c>
       <c r="E187" s="4">
-        <v>18680</v>
+        <v>18694</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>53989</v>
+        <v>54055</v>
       </c>
       <c r="C188" s="4">
-        <v>2817</v>
+        <v>2824</v>
       </c>
       <c r="D188" s="4">
-        <v>20021</v>
+        <v>20039</v>
       </c>
       <c r="E188" s="4">
-        <v>76827</v>
+        <v>76918</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>109100</v>
+        <v>109249</v>
       </c>
       <c r="C189" s="4">
-        <v>9418</v>
+        <v>9420</v>
       </c>
       <c r="D189" s="4">
-        <v>36827</v>
+        <v>36891</v>
       </c>
       <c r="E189" s="4">
-        <v>155345</v>
+        <v>155560</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7837</v>
+        <v>7838</v>
       </c>
       <c r="C190" s="4">
         <v>60</v>
       </c>
       <c r="D190" s="4">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="E190" s="4">
-        <v>10218</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>5337</v>
+        <v>5344</v>
       </c>
       <c r="C191" s="4">
         <v>477</v>
       </c>
       <c r="D191" s="4">
-        <v>2896</v>
+        <v>2912</v>
       </c>
       <c r="E191" s="4">
-        <v>8710</v>
+        <v>8733</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>78392</v>
+        <v>78567</v>
       </c>
       <c r="C192" s="4">
-        <v>19178</v>
+        <v>19182</v>
       </c>
       <c r="D192" s="4">
-        <v>33573</v>
+        <v>33670</v>
       </c>
       <c r="E192" s="4">
-        <v>131143</v>
+        <v>131419</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,7 +4318,7 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C193" s="4">
         <v>43</v>
@@ -4327,7 +4327,7 @@
         <v>845</v>
       </c>
       <c r="E193" s="4">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="C194" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D194" s="4">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="E194" s="4">
-        <v>4265</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>8044</v>
+        <v>8062</v>
       </c>
       <c r="C195" s="4">
         <v>725</v>
       </c>
       <c r="D195" s="4">
-        <v>7842</v>
+        <v>7880</v>
       </c>
       <c r="E195" s="4">
-        <v>16611</v>
+        <v>16667</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>11918</v>
+        <v>11926</v>
       </c>
       <c r="C196" s="4">
         <v>473</v>
       </c>
       <c r="D196" s="4">
-        <v>91154</v>
+        <v>91280</v>
       </c>
       <c r="E196" s="4">
-        <v>103545</v>
+        <v>103679</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>5469</v>
+        <v>5477</v>
       </c>
       <c r="C197" s="4">
         <v>492</v>
       </c>
       <c r="D197" s="4">
-        <v>7444</v>
+        <v>7471</v>
       </c>
       <c r="E197" s="4">
-        <v>13405</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>18100</v>
+        <v>18117</v>
       </c>
       <c r="C199" s="4">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D199" s="4">
-        <v>12385</v>
+        <v>12573</v>
       </c>
       <c r="E199" s="4">
-        <v>31004</v>
+        <v>31211</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>107449</v>
+        <v>107565</v>
       </c>
       <c r="C200" s="4">
-        <v>7597</v>
+        <v>7606</v>
       </c>
       <c r="D200" s="4">
-        <v>18310</v>
+        <v>18382</v>
       </c>
       <c r="E200" s="4">
-        <v>133356</v>
+        <v>133553</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>7801</v>
+        <v>7804</v>
       </c>
       <c r="C201" s="4">
         <v>238</v>
       </c>
       <c r="D201" s="4">
-        <v>6983</v>
+        <v>6990</v>
       </c>
       <c r="E201" s="4">
-        <v>15022</v>
+        <v>15032</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>34688</v>
+        <v>34714</v>
       </c>
       <c r="C202" s="4">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="D202" s="4">
-        <v>8934</v>
+        <v>8954</v>
       </c>
       <c r="E202" s="4">
-        <v>46040</v>
+        <v>46087</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>10360</v>
+        <v>10374</v>
       </c>
       <c r="C203" s="4">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D203" s="4">
-        <v>4828</v>
+        <v>4832</v>
       </c>
       <c r="E203" s="4">
-        <v>15906</v>
+        <v>15925</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>9469</v>
+        <v>9473</v>
       </c>
       <c r="C204" s="4">
         <v>279</v>
       </c>
       <c r="D204" s="4">
-        <v>8300</v>
+        <v>8306</v>
       </c>
       <c r="E204" s="4">
-        <v>18048</v>
+        <v>18058</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>29561</v>
+        <v>29608</v>
       </c>
       <c r="C205" s="4">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="D205" s="4">
-        <v>9711</v>
+        <v>9736</v>
       </c>
       <c r="E205" s="4">
-        <v>41714</v>
+        <v>41787</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>51144</v>
+        <v>51197</v>
       </c>
       <c r="C206" s="4">
-        <v>9707</v>
+        <v>9714</v>
       </c>
       <c r="D206" s="4">
-        <v>40774</v>
+        <v>40848</v>
       </c>
       <c r="E206" s="4">
-        <v>101625</v>
+        <v>101759</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5339</v>
+        <v>5340</v>
       </c>
       <c r="C207" s="4">
         <v>130</v>
       </c>
       <c r="D207" s="4">
-        <v>3892</v>
+        <v>3899</v>
       </c>
       <c r="E207" s="4">
-        <v>9361</v>
+        <v>9369</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,7 +4573,7 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
@@ -4582,7 +4582,7 @@
         <v>845</v>
       </c>
       <c r="E208" s="4">
-        <v>1910</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>26605</v>
+        <v>26684</v>
       </c>
       <c r="C209" s="4">
         <v>323</v>
       </c>
       <c r="D209" s="4">
-        <v>3264</v>
+        <v>3273</v>
       </c>
       <c r="E209" s="4">
-        <v>30192</v>
+        <v>30280</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C210" s="4">
         <v>91</v>
       </c>
       <c r="D210" s="4">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="E210" s="4">
-        <v>2412</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>19745</v>
+        <v>19809</v>
       </c>
       <c r="C211" s="4">
         <v>1392</v>
       </c>
       <c r="D211" s="4">
-        <v>8900</v>
+        <v>8904</v>
       </c>
       <c r="E211" s="4">
-        <v>30037</v>
+        <v>30105</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>276435</v>
+        <v>276782</v>
       </c>
       <c r="C213" s="4">
-        <v>13347</v>
+        <v>13430</v>
       </c>
       <c r="D213" s="4">
-        <v>86358</v>
+        <v>86725</v>
       </c>
       <c r="E213" s="4">
-        <v>376140</v>
+        <v>376937</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>7604</v>
+        <v>7612</v>
       </c>
       <c r="C214" s="4">
         <v>435</v>
       </c>
       <c r="D214" s="4">
-        <v>7736</v>
+        <v>7739</v>
       </c>
       <c r="E214" s="4">
-        <v>15775</v>
+        <v>15786</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>74513</v>
+        <v>74724</v>
       </c>
       <c r="C215" s="4">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D215" s="4">
-        <v>35156</v>
+        <v>35181</v>
       </c>
       <c r="E215" s="4">
-        <v>110522</v>
+        <v>110760</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>5840</v>
+        <v>5850</v>
       </c>
       <c r="C216" s="4">
         <v>161</v>
       </c>
       <c r="D216" s="4">
-        <v>6605</v>
+        <v>6606</v>
       </c>
       <c r="E216" s="4">
-        <v>12606</v>
+        <v>12617</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4732,10 +4732,10 @@
         <v>23</v>
       </c>
       <c r="D217" s="4">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="E217" s="4">
-        <v>1606</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>9</v>
       </c>
       <c r="D218" s="4">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="E218" s="4">
-        <v>1326</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="C219" s="4">
         <v>47</v>
       </c>
       <c r="D219" s="4">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="E219" s="4">
-        <v>2748</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>7993</v>
+        <v>8003</v>
       </c>
       <c r="C220" s="4">
         <v>418</v>
       </c>
       <c r="D220" s="4">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="E220" s="4">
-        <v>10470</v>
+        <v>10483</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>2577092</v>
+        <v>2582070</v>
       </c>
       <c r="C221" s="4">
-        <v>112557</v>
+        <v>112700</v>
       </c>
       <c r="D221" s="4">
-        <v>519574</v>
+        <v>521936</v>
       </c>
       <c r="E221" s="4">
-        <v>3209223</v>
+        <v>3216706</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>113529</v>
+        <v>113598</v>
       </c>
       <c r="C222" s="4">
-        <v>4309</v>
+        <v>4314</v>
       </c>
       <c r="D222" s="4">
-        <v>127634</v>
+        <v>127897</v>
       </c>
       <c r="E222" s="4">
-        <v>245472</v>
+        <v>245809</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>5777</v>
+        <v>5786</v>
       </c>
       <c r="C224" s="4">
         <v>137</v>
       </c>
       <c r="D224" s="4">
-        <v>3816</v>
+        <v>3823</v>
       </c>
       <c r="E224" s="4">
-        <v>9730</v>
+        <v>9746</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4862,16 +4862,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C225" s="4">
         <v>38</v>
       </c>
       <c r="D225" s="4">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E225" s="4">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>31727</v>
+        <v>31761</v>
       </c>
       <c r="C226" s="4">
         <v>1417</v>
       </c>
       <c r="D226" s="4">
-        <v>8810</v>
+        <v>8813</v>
       </c>
       <c r="E226" s="4">
-        <v>41954</v>
+        <v>41991</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>96149</v>
+        <v>96233</v>
       </c>
       <c r="C227" s="4">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="D227" s="4">
-        <v>109547</v>
+        <v>109798</v>
       </c>
       <c r="E227" s="4">
-        <v>208730</v>
+        <v>209068</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1730900</v>
+        <v>1734427</v>
       </c>
       <c r="C228" s="4">
-        <v>71955</v>
+        <v>72472</v>
       </c>
       <c r="D228" s="4">
-        <v>397230</v>
+        <v>398037</v>
       </c>
       <c r="E228" s="4">
-        <v>2200085</v>
+        <v>2204936</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>17594</v>
+        <v>17610</v>
       </c>
       <c r="C229" s="4">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D229" s="4">
-        <v>7818</v>
+        <v>7826</v>
       </c>
       <c r="E229" s="4">
-        <v>26005</v>
+        <v>26033</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>15863</v>
+        <v>15874</v>
       </c>
       <c r="C230" s="4">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D230" s="4">
-        <v>10157</v>
+        <v>10161</v>
       </c>
       <c r="E230" s="4">
-        <v>27102</v>
+        <v>27119</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>15732</v>
+        <v>15746</v>
       </c>
       <c r="C231" s="4">
-        <v>2418</v>
+        <v>2423</v>
       </c>
       <c r="D231" s="4">
-        <v>9104</v>
+        <v>9123</v>
       </c>
       <c r="E231" s="4">
-        <v>27254</v>
+        <v>27292</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="C232" s="4">
         <v>100</v>
       </c>
       <c r="D232" s="4">
-        <v>3802</v>
+        <v>3830</v>
       </c>
       <c r="E232" s="4">
-        <v>5049</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>38514</v>
+        <v>38550</v>
       </c>
       <c r="C233" s="4">
         <v>555</v>
       </c>
       <c r="D233" s="4">
-        <v>4505</v>
+        <v>4513</v>
       </c>
       <c r="E233" s="4">
-        <v>43574</v>
+        <v>43618</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>61475</v>
+        <v>61517</v>
       </c>
       <c r="C234" s="4">
         <v>1346</v>
       </c>
       <c r="D234" s="4">
-        <v>32439</v>
+        <v>32448</v>
       </c>
       <c r="E234" s="4">
-        <v>95260</v>
+        <v>95311</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>31823</v>
+        <v>31877</v>
       </c>
       <c r="C235" s="4">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="D235" s="4">
-        <v>20209</v>
+        <v>20248</v>
       </c>
       <c r="E235" s="4">
-        <v>54349</v>
+        <v>54445</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>69701</v>
+        <v>69825</v>
       </c>
       <c r="C236" s="4">
-        <v>4449</v>
+        <v>4491</v>
       </c>
       <c r="D236" s="4">
-        <v>30341</v>
+        <v>30388</v>
       </c>
       <c r="E236" s="4">
-        <v>104491</v>
+        <v>104704</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>164287</v>
+        <v>164430</v>
       </c>
       <c r="C237" s="4">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="D237" s="4">
-        <v>43945</v>
+        <v>43970</v>
       </c>
       <c r="E237" s="4">
-        <v>211450</v>
+        <v>211620</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>57091</v>
+        <v>57292</v>
       </c>
       <c r="C238" s="4">
-        <v>2301</v>
+        <v>2308</v>
       </c>
       <c r="D238" s="4">
-        <v>10699</v>
+        <v>10728</v>
       </c>
       <c r="E238" s="4">
-        <v>70091</v>
+        <v>70328</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>5569</v>
+        <v>5572</v>
       </c>
       <c r="C239" s="4">
         <v>230</v>
       </c>
       <c r="D239" s="4">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="E239" s="4">
-        <v>7827</v>
+        <v>7834</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>53081</v>
+        <v>53139</v>
       </c>
       <c r="C240" s="4">
         <v>1985</v>
       </c>
       <c r="D240" s="4">
-        <v>25338</v>
+        <v>25343</v>
       </c>
       <c r="E240" s="4">
-        <v>80404</v>
+        <v>80467</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>500310</v>
+        <v>500652</v>
       </c>
       <c r="C241" s="4">
-        <v>7051</v>
+        <v>7052</v>
       </c>
       <c r="D241" s="4">
-        <v>133487</v>
+        <v>134010</v>
       </c>
       <c r="E241" s="4">
-        <v>640848</v>
+        <v>641714</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>46876</v>
+        <v>46940</v>
       </c>
       <c r="C242" s="4">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="D242" s="4">
-        <v>9874</v>
+        <v>9899</v>
       </c>
       <c r="E242" s="4">
-        <v>59263</v>
+        <v>59355</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2295</v>
+        <v>2303</v>
       </c>
       <c r="C243" s="4">
         <v>490</v>
       </c>
       <c r="D243" s="4">
-        <v>4396</v>
+        <v>4399</v>
       </c>
       <c r="E243" s="4">
-        <v>7181</v>
+        <v>7192</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>146634</v>
+        <v>146999</v>
       </c>
       <c r="C244" s="4">
-        <v>10085</v>
+        <v>10135</v>
       </c>
       <c r="D244" s="4">
-        <v>63296</v>
+        <v>63328</v>
       </c>
       <c r="E244" s="4">
-        <v>220015</v>
+        <v>220462</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>16973</v>
+        <v>17016</v>
       </c>
       <c r="C245" s="4">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D245" s="4">
         <v>22074</v>
       </c>
       <c r="E245" s="4">
-        <v>39822</v>
+        <v>39866</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>44964</v>
+        <v>45016</v>
       </c>
       <c r="C246" s="4">
         <v>229</v>
       </c>
       <c r="D246" s="4">
-        <v>8030</v>
+        <v>8046</v>
       </c>
       <c r="E246" s="4">
-        <v>53223</v>
+        <v>53291</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>746316</v>
+        <v>748226</v>
       </c>
       <c r="C247" s="4">
-        <v>30619</v>
+        <v>30888</v>
       </c>
       <c r="D247" s="4">
-        <v>184849</v>
+        <v>185309</v>
       </c>
       <c r="E247" s="4">
-        <v>961784</v>
+        <v>964423</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>51400</v>
+        <v>51455</v>
       </c>
       <c r="C248" s="4">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="D248" s="4">
-        <v>19088</v>
+        <v>19215</v>
       </c>
       <c r="E248" s="4">
-        <v>71976</v>
+        <v>72163</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1639</v>
+        <v>1649</v>
       </c>
       <c r="C249" s="4">
         <v>72</v>
       </c>
       <c r="D249" s="4">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E249" s="4">
-        <v>2382</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>70247</v>
+        <v>70360</v>
       </c>
       <c r="C250" s="4">
-        <v>3915</v>
+        <v>3918</v>
       </c>
       <c r="D250" s="4">
-        <v>15143</v>
+        <v>15180</v>
       </c>
       <c r="E250" s="4">
-        <v>89305</v>
+        <v>89458</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>27833</v>
+        <v>27874</v>
       </c>
       <c r="C251" s="4">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="D251" s="4">
-        <v>15297</v>
+        <v>15357</v>
       </c>
       <c r="E251" s="4">
-        <v>45430</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2845</v>
+        <v>2851</v>
       </c>
       <c r="C252" s="4">
         <v>170</v>
       </c>
       <c r="D252" s="4">
-        <v>1782</v>
+        <v>1823</v>
       </c>
       <c r="E252" s="4">
-        <v>4797</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>10234</v>
+        <v>10266</v>
       </c>
       <c r="C253" s="4">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D253" s="4">
-        <v>5331</v>
+        <v>5364</v>
       </c>
       <c r="E253" s="4">
-        <v>16242</v>
+        <v>16308</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>18203</v>
+        <v>18211</v>
       </c>
       <c r="C254" s="4">
         <v>158</v>
       </c>
       <c r="D254" s="4">
-        <v>17221</v>
+        <v>17237</v>
       </c>
       <c r="E254" s="4">
-        <v>35582</v>
+        <v>35606</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>12697</v>
+        <v>12710</v>
       </c>
       <c r="C255" s="4">
         <v>270</v>
       </c>
       <c r="D255" s="4">
-        <v>2553</v>
+        <v>2558</v>
       </c>
       <c r="E255" s="4">
-        <v>15520</v>
+        <v>15538</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>234704</v>
+        <v>236058</v>
       </c>
       <c r="C256" s="4">
-        <v>14351</v>
+        <v>14353</v>
       </c>
       <c r="D256" s="4">
-        <v>15709</v>
+        <v>15731</v>
       </c>
       <c r="E256" s="4">
-        <v>264764</v>
+        <v>266142</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>37054870</v>
+        <v>37120913</v>
       </c>
       <c r="C257" s="4">
-        <v>1654678</v>
+        <v>1657885</v>
       </c>
       <c r="D257" s="4">
-        <v>9249936</v>
+        <v>9274636</v>
       </c>
       <c r="E257" s="4">
-        <v>47959484</v>
+        <v>48053434</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
